--- a/warehouse-api/src/main/resources/static/商品导入模板.xlsx
+++ b/warehouse-api/src/main/resources/static/商品导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamen/Dev/workspace_idea/git-repo/warehouse/warehouse-api/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E253972A-46CF-F140-874A-FFA62EC64AAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{23ACFFBE-041F-864C-8EFC-BEF115B54DB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="960" windowWidth="24540" windowHeight="13940" xr2:uid="{9CACC99B-25EB-724B-928B-4BB63BF4BB04}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>适用装置</t>
   </si>
@@ -189,64 +188,6 @@
       </rPr>
       <t>期初数量</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瑞继保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭堂仓库</t>
-    <rPh sb="0" eb="2">
-      <t>qni</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VWCPU04C R0.0</t>
-  </si>
-  <si>
-    <t>FOX-41A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中央处理器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -742,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7219E-E71F-A84A-88FE-B23C27F6D112}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -764,13 +705,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -804,88 +745,6 @@
       </c>
       <c r="N1" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
